--- a/data_year/zb/金融业/其他存款性公司资产负债表.xlsx
+++ b/data_year/zb/金融业/其他存款性公司资产负债表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,1258 +588,1161 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6871.8</v>
+        <v>7484.2</v>
       </c>
       <c r="C2" t="n">
-        <v>4339.2</v>
+        <v>6081.9</v>
       </c>
       <c r="D2" t="n">
-        <v>11210.9</v>
+        <v>13566.1</v>
       </c>
       <c r="E2" t="n">
-        <v>42335.3</v>
+        <v>59105.2</v>
       </c>
       <c r="F2" t="n">
-        <v>93915.3</v>
+        <v>136835</v>
       </c>
       <c r="G2" t="n">
-        <v>55798.4</v>
+        <v>78326.89999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>38609.5</v>
+        <v>46692.4</v>
       </c>
       <c r="I2" t="n">
-        <v>91018.5</v>
+        <v>132817.1</v>
       </c>
       <c r="J2" t="n">
-        <v>5143.4</v>
+        <v>7179.4</v>
       </c>
       <c r="K2" t="n">
-        <v>22303.1</v>
+        <v>18524.8</v>
       </c>
       <c r="L2" t="n">
-        <v>21751.1</v>
+        <v>26506.8</v>
       </c>
       <c r="M2" t="n">
-        <v>42683</v>
+        <v>40274.2</v>
       </c>
       <c r="N2" t="n">
-        <v>4610</v>
+        <v>5629</v>
       </c>
       <c r="O2" t="n">
-        <v>75741.10000000001</v>
+        <v>134452.8</v>
       </c>
       <c r="P2" t="n">
-        <v>32580.3</v>
+        <v>55748.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>57136.9</v>
+        <v>112094.4</v>
       </c>
       <c r="R2" t="n">
-        <v>12450.5</v>
+        <v>19735.5</v>
       </c>
       <c r="S2" t="n">
-        <v>32029.8</v>
+        <v>44255.2</v>
       </c>
       <c r="T2" t="n">
-        <v>8808.299999999999</v>
+        <v>12905.2</v>
       </c>
       <c r="U2" t="n">
-        <v>30202.4</v>
+        <v>43460.5</v>
       </c>
       <c r="V2" t="n">
-        <v>268459.8</v>
+        <v>409539.1</v>
       </c>
       <c r="W2" t="n">
-        <v>447253.5</v>
+        <v>684857.8</v>
       </c>
       <c r="X2" t="n">
-        <v>3903.2</v>
+        <v>2973.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>2896.8</v>
+        <v>4017.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>641501.7</v>
+        <v>961608.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>641501.7</v>
+        <v>961608.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>217801.4</v>
+        <v>303093</v>
       </c>
       <c r="AC2" t="n">
-        <v>82339.89999999999</v>
+        <v>143232.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>131998.2</v>
+        <v>221993.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>432139.4</v>
+        <v>668318.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6489.5068996773</v>
+        <v>9690.586434297</v>
       </c>
       <c r="C3" t="n">
-        <v>5299.98277288</v>
+        <v>7118.4820464811</v>
       </c>
       <c r="D3" t="n">
-        <v>11789.4896725573</v>
+        <v>16809.0684807781</v>
       </c>
       <c r="E3" t="n">
-        <v>51924.5180889473</v>
+        <v>75409.6916160422</v>
       </c>
       <c r="F3" t="n">
-        <v>104575.528366821</v>
+        <v>173004.059717603</v>
       </c>
       <c r="G3" t="n">
-        <v>65913.22583530861</v>
+        <v>101948.853999928</v>
       </c>
       <c r="H3" t="n">
-        <v>46317.9142145301</v>
+        <v>54224.6730540132</v>
       </c>
       <c r="I3" t="n">
-        <v>101266.70041592</v>
+        <v>167902.486061365</v>
       </c>
       <c r="J3" t="n">
-        <v>6018.7530143108</v>
+        <v>7765.8643567495</v>
       </c>
       <c r="K3" t="n">
-        <v>17807.2298314997</v>
+        <v>24211.7385759015</v>
       </c>
       <c r="L3" t="n">
-        <v>23130.8345019927</v>
+        <v>28641.9950599087</v>
       </c>
       <c r="M3" t="n">
-        <v>54632.2904788698</v>
+        <v>22323.9635372655</v>
       </c>
       <c r="N3" t="n">
-        <v>5584.461753601</v>
+        <v>6763.8620522433</v>
       </c>
       <c r="O3" t="n">
-        <v>97914.50602378719</v>
+        <v>179466.042937022</v>
       </c>
       <c r="P3" t="n">
-        <v>44022.1232170833</v>
+        <v>85081.9781220718</v>
       </c>
       <c r="Q3" t="n">
-        <v>83655.66733643389</v>
+        <v>135214.355506128</v>
       </c>
       <c r="R3" t="n">
-        <v>16977.7213583576</v>
+        <v>34329.1794806722</v>
       </c>
       <c r="S3" t="n">
-        <v>42161.5944381723</v>
+        <v>52210.8868918253</v>
       </c>
       <c r="T3" t="n">
-        <v>15111.32031996</v>
+        <v>42329.6937641001</v>
       </c>
       <c r="U3" t="n">
-        <v>38052.8005943047</v>
+        <v>49697.8491037498</v>
       </c>
       <c r="V3" t="n">
-        <v>349884.361003457</v>
+        <v>465395.194075565</v>
       </c>
       <c r="W3" t="n">
-        <v>571062.508358645</v>
+        <v>780043.923889151</v>
       </c>
       <c r="X3" t="n">
-        <v>2406.7903402866</v>
+        <v>4722.1107904435</v>
       </c>
       <c r="Y3" t="n">
-        <v>3308.8279509007</v>
+        <v>5101.5736562382</v>
       </c>
       <c r="Z3" t="n">
-        <v>809818.019208061</v>
+        <v>1137867.05598792</v>
       </c>
       <c r="AA3" t="n">
-        <v>809818.019208061</v>
+        <v>1137867.05598792</v>
       </c>
       <c r="AB3" t="n">
-        <v>260236.735891583</v>
+        <v>352797.470280398</v>
       </c>
       <c r="AC3" t="n">
-        <v>113430.661172389</v>
+        <v>166616.039452247</v>
       </c>
       <c r="AD3" t="n">
-        <v>183198.831281828</v>
+        <v>239099.234885285</v>
       </c>
       <c r="AE3" t="n">
-        <v>556866.228345801</v>
+        <v>758512.74461793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7484.2</v>
+        <v>16418.0414626474</v>
       </c>
       <c r="C4" t="n">
-        <v>6081.9</v>
+        <v>8036.070912076</v>
       </c>
       <c r="D4" t="n">
-        <v>13566.1</v>
+        <v>24454.1123747234</v>
       </c>
       <c r="E4" t="n">
-        <v>59105.2</v>
+        <v>92318.265769548</v>
       </c>
       <c r="F4" t="n">
-        <v>136835</v>
+        <v>197132.461903267</v>
       </c>
       <c r="G4" t="n">
-        <v>78326.89999999999</v>
+        <v>126952.626736869</v>
       </c>
       <c r="H4" t="n">
-        <v>46692.4</v>
+        <v>60228.5727631641</v>
       </c>
       <c r="I4" t="n">
-        <v>132817.1</v>
+        <v>191146.290788875</v>
       </c>
       <c r="J4" t="n">
-        <v>7179.4</v>
+        <v>9900.254683327799</v>
       </c>
       <c r="K4" t="n">
-        <v>18524.8</v>
+        <v>28798.5057438988</v>
       </c>
       <c r="L4" t="n">
-        <v>26506.8</v>
+        <v>30725.2712312183</v>
       </c>
       <c r="M4" t="n">
-        <v>40274.2</v>
+        <v>12708.9520111834</v>
       </c>
       <c r="N4" t="n">
-        <v>5629</v>
+        <v>13903.0506938996</v>
       </c>
       <c r="O4" t="n">
-        <v>134452.8</v>
+        <v>237024.568445392</v>
       </c>
       <c r="P4" t="n">
-        <v>55748.4</v>
+        <v>108636.248402742</v>
       </c>
       <c r="Q4" t="n">
-        <v>112094.4</v>
+        <v>160193.844217161</v>
       </c>
       <c r="R4" t="n">
-        <v>19735.5</v>
+        <v>50519.9150402208</v>
       </c>
       <c r="S4" t="n">
-        <v>44255.2</v>
+        <v>62999.2083467714</v>
       </c>
       <c r="T4" t="n">
-        <v>12905.2</v>
+        <v>58181.8560163467</v>
       </c>
       <c r="U4" t="n">
-        <v>43460.5</v>
+        <v>56123.2924279553</v>
       </c>
       <c r="V4" t="n">
-        <v>409539.1</v>
+        <v>534132.68186473</v>
       </c>
       <c r="W4" t="n">
-        <v>684857.8</v>
+        <v>891427.868552596</v>
       </c>
       <c r="X4" t="n">
-        <v>2973.2</v>
+        <v>5666.5821740296</v>
       </c>
       <c r="Y4" t="n">
-        <v>4017.9</v>
+        <v>5986.1711143927</v>
       </c>
       <c r="Z4" t="n">
-        <v>961608.6</v>
+        <v>1336862.79441697</v>
       </c>
       <c r="AA4" t="n">
-        <v>961608.6</v>
+        <v>1336862.79441697</v>
       </c>
       <c r="AB4" t="n">
-        <v>303093</v>
+        <v>411362.586829742</v>
       </c>
       <c r="AC4" t="n">
-        <v>143232.1</v>
+        <v>195940.127934156</v>
       </c>
       <c r="AD4" t="n">
-        <v>221993.4</v>
+        <v>254004.459239945</v>
       </c>
       <c r="AE4" t="n">
-        <v>668318.5</v>
+        <v>861307.174003843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9690.586434297</v>
+        <v>18486.3479739705</v>
       </c>
       <c r="C5" t="n">
-        <v>7118.4820464811</v>
+        <v>7453.9817507424</v>
       </c>
       <c r="D5" t="n">
-        <v>16809.0684807781</v>
+        <v>25940.3297247129</v>
       </c>
       <c r="E5" t="n">
-        <v>75409.6916160422</v>
+        <v>103672.07440234</v>
       </c>
       <c r="F5" t="n">
-        <v>173004.059717603</v>
+        <v>211775.569001061</v>
       </c>
       <c r="G5" t="n">
-        <v>101948.853999928</v>
+        <v>160915.951126946</v>
       </c>
       <c r="H5" t="n">
-        <v>54224.6730540132</v>
+        <v>82045.957283626</v>
       </c>
       <c r="I5" t="n">
-        <v>167902.486061365</v>
+        <v>205369.107379316</v>
       </c>
       <c r="J5" t="n">
-        <v>7765.8643567495</v>
+        <v>17973.0023304508</v>
       </c>
       <c r="K5" t="n">
-        <v>24211.7385759015</v>
+        <v>28814.0942322803</v>
       </c>
       <c r="L5" t="n">
-        <v>28641.9950599087</v>
+        <v>32545.8216376789</v>
       </c>
       <c r="M5" t="n">
-        <v>22323.9635372655</v>
+        <v>10301.4173786971</v>
       </c>
       <c r="N5" t="n">
-        <v>6763.8620522433</v>
+        <v>11663.213234903</v>
       </c>
       <c r="O5" t="n">
-        <v>179466.042937022</v>
+        <v>260441.974879167</v>
       </c>
       <c r="P5" t="n">
-        <v>85081.9781220718</v>
+        <v>110397.94633111</v>
       </c>
       <c r="Q5" t="n">
-        <v>135214.355506128</v>
+        <v>196863.630799985</v>
       </c>
       <c r="R5" t="n">
-        <v>34329.1794806722</v>
+        <v>72592.27934217631</v>
       </c>
       <c r="S5" t="n">
-        <v>52210.8868918253</v>
+        <v>74804.69859562779</v>
       </c>
       <c r="T5" t="n">
-        <v>42329.6937641001</v>
+        <v>69506.23041267481</v>
       </c>
       <c r="U5" t="n">
-        <v>49697.8491037498</v>
+        <v>62341.4735497189</v>
       </c>
       <c r="V5" t="n">
-        <v>465395.194075565</v>
+        <v>599575.150879527</v>
       </c>
       <c r="W5" t="n">
-        <v>780043.923889151</v>
+        <v>1012778.83968718</v>
       </c>
       <c r="X5" t="n">
-        <v>4722.1107904435</v>
+        <v>8394.2044718159</v>
       </c>
       <c r="Y5" t="n">
-        <v>5101.5736562382</v>
+        <v>6406.4616217446</v>
       </c>
       <c r="Z5" t="n">
-        <v>1137867.05598792</v>
+        <v>1524751.54734624</v>
       </c>
       <c r="AA5" t="n">
-        <v>1137867.05598792</v>
+        <v>1524751.54734624</v>
       </c>
       <c r="AB5" t="n">
-        <v>352797.470280398</v>
+        <v>467031.116113744</v>
       </c>
       <c r="AC5" t="n">
-        <v>166616.039452247</v>
+        <v>232696.582900227</v>
       </c>
       <c r="AD5" t="n">
-        <v>239099.234885285</v>
+        <v>278716.606476683</v>
       </c>
       <c r="AE5" t="n">
-        <v>758512.74461793</v>
+        <v>978444.305490654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16418.0414626474</v>
+        <v>22979.1458408839</v>
       </c>
       <c r="C6" t="n">
-        <v>8036.070912076</v>
+        <v>8156.7020800772</v>
       </c>
       <c r="D6" t="n">
-        <v>24454.1123747234</v>
+        <v>31135.8479209611</v>
       </c>
       <c r="E6" t="n">
-        <v>92318.265769548</v>
+        <v>123119.418209091</v>
       </c>
       <c r="F6" t="n">
-        <v>197132.461903267</v>
+        <v>233488.700721091</v>
       </c>
       <c r="G6" t="n">
-        <v>126952.626736869</v>
+        <v>185074.512739188</v>
       </c>
       <c r="H6" t="n">
-        <v>60228.5727631641</v>
+        <v>79834.6296940013</v>
       </c>
       <c r="I6" t="n">
-        <v>191146.290788875</v>
+        <v>226596.974239086</v>
       </c>
       <c r="J6" t="n">
-        <v>9900.254683327799</v>
+        <v>25087.6189449936</v>
       </c>
       <c r="K6" t="n">
-        <v>28798.5057438988</v>
+        <v>36688.9722649201</v>
       </c>
       <c r="L6" t="n">
-        <v>30725.2712312183</v>
+        <v>36410.4436893907</v>
       </c>
       <c r="M6" t="n">
-        <v>12708.9520111834</v>
+        <v>6563.9816674958</v>
       </c>
       <c r="N6" t="n">
-        <v>13903.0506938996</v>
+        <v>26616.7231947064</v>
       </c>
       <c r="O6" t="n">
-        <v>237024.568445392</v>
+        <v>280389.251796145</v>
       </c>
       <c r="P6" t="n">
-        <v>108636.248402742</v>
+        <v>111117.853317774</v>
       </c>
       <c r="Q6" t="n">
-        <v>160193.844217161</v>
+        <v>229215.556846337</v>
       </c>
       <c r="R6" t="n">
-        <v>50519.9150402208</v>
+        <v>111553.498694224</v>
       </c>
       <c r="S6" t="n">
-        <v>62999.2083467714</v>
+        <v>112400.753232098</v>
       </c>
       <c r="T6" t="n">
-        <v>58181.8560163467</v>
+        <v>107384.567202005</v>
       </c>
       <c r="U6" t="n">
-        <v>56123.2924279553</v>
+        <v>71009.6001271994</v>
       </c>
       <c r="V6" t="n">
-        <v>534132.68186473</v>
+        <v>673285.684452083</v>
       </c>
       <c r="W6" t="n">
-        <v>891427.868552596</v>
+        <v>1102202.55293626</v>
       </c>
       <c r="X6" t="n">
-        <v>5666.5821740296</v>
+        <v>10335.9945134659</v>
       </c>
       <c r="Y6" t="n">
-        <v>5986.1711143927</v>
+        <v>6891.7264820051</v>
       </c>
       <c r="Z6" t="n">
-        <v>1336862.79441697</v>
+        <v>1722029.8762635</v>
       </c>
       <c r="AA6" t="n">
-        <v>1336862.79441697</v>
+        <v>1722029.8762635</v>
       </c>
       <c r="AB6" t="n">
-        <v>411362.586829742</v>
+        <v>508878.123634291</v>
       </c>
       <c r="AC6" t="n">
-        <v>195940.127934156</v>
+        <v>264055.706760127</v>
       </c>
       <c r="AD6" t="n">
-        <v>254004.459239945</v>
+        <v>287796.88010741</v>
       </c>
       <c r="AE6" t="n">
-        <v>861307.174003843</v>
+        <v>1060730.71050183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18486.3479739705</v>
+        <v>25633.66</v>
       </c>
       <c r="C7" t="n">
-        <v>7453.9817507424</v>
+        <v>10806.19</v>
       </c>
       <c r="D7" t="n">
-        <v>25940.3297247129</v>
+        <v>36439.86</v>
       </c>
       <c r="E7" t="n">
-        <v>103672.07440234</v>
+        <v>160003.65</v>
       </c>
       <c r="F7" t="n">
-        <v>211775.569001061</v>
+        <v>219330.07</v>
       </c>
       <c r="G7" t="n">
-        <v>160915.951126946</v>
+        <v>204978.01</v>
       </c>
       <c r="H7" t="n">
-        <v>82045.957283626</v>
+        <v>72385.48</v>
       </c>
       <c r="I7" t="n">
-        <v>205369.107379316</v>
+        <v>212660.73</v>
       </c>
       <c r="J7" t="n">
-        <v>17973.0023304508</v>
+        <v>12978.41</v>
       </c>
       <c r="K7" t="n">
-        <v>28814.0942322803</v>
+        <v>41594.51</v>
       </c>
       <c r="L7" t="n">
-        <v>32545.8216376789</v>
+        <v>42994.68</v>
       </c>
       <c r="M7" t="n">
-        <v>10301.4173786971</v>
+        <v>6229.24</v>
       </c>
       <c r="N7" t="n">
-        <v>11663.213234903</v>
+        <v>33638.06</v>
       </c>
       <c r="O7" t="n">
-        <v>260441.974879167</v>
+        <v>314186.47</v>
       </c>
       <c r="P7" t="n">
-        <v>110397.94633111</v>
+        <v>131306.03</v>
       </c>
       <c r="Q7" t="n">
-        <v>196863.630799985</v>
+        <v>267325.9</v>
       </c>
       <c r="R7" t="n">
-        <v>72592.27934217631</v>
+        <v>176579.37</v>
       </c>
       <c r="S7" t="n">
-        <v>74804.69859562779</v>
+        <v>155914.9</v>
       </c>
       <c r="T7" t="n">
-        <v>69506.23041267481</v>
+        <v>151010.53</v>
       </c>
       <c r="U7" t="n">
-        <v>62341.4735497189</v>
+        <v>110163.34</v>
       </c>
       <c r="V7" t="n">
-        <v>599575.150879527</v>
+        <v>783762.11</v>
       </c>
       <c r="W7" t="n">
-        <v>1012778.83968718</v>
+        <v>1249742.73</v>
       </c>
       <c r="X7" t="n">
-        <v>8394.2044718159</v>
+        <v>35251.87</v>
       </c>
       <c r="Y7" t="n">
-        <v>6406.4616217446</v>
+        <v>6669.34</v>
       </c>
       <c r="Z7" t="n">
-        <v>1524751.54734624</v>
+        <v>1991556.48</v>
       </c>
       <c r="AA7" t="n">
-        <v>1524751.54734624</v>
+        <v>1991556.48</v>
       </c>
       <c r="AB7" t="n">
-        <v>467031.116113744</v>
+        <v>552073.48</v>
       </c>
       <c r="AC7" t="n">
-        <v>232696.582900227</v>
+        <v>288240.66</v>
       </c>
       <c r="AD7" t="n">
-        <v>278716.606476683</v>
+        <v>337736.86</v>
       </c>
       <c r="AE7" t="n">
-        <v>978444.305490654</v>
+        <v>1178051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22979.1458408839</v>
+        <v>30846.0563025969</v>
       </c>
       <c r="C8" t="n">
-        <v>8156.7020800772</v>
+        <v>14028.4339805272</v>
       </c>
       <c r="D8" t="n">
-        <v>31135.8479209611</v>
+        <v>44874.4902831241</v>
       </c>
       <c r="E8" t="n">
-        <v>123119.418209091</v>
+        <v>201110.886809286</v>
       </c>
       <c r="F8" t="n">
-        <v>233488.700721091</v>
+        <v>246447.181943636</v>
       </c>
       <c r="G8" t="n">
-        <v>185074.512739188</v>
+        <v>232355.166104932</v>
       </c>
       <c r="H8" t="n">
-        <v>79834.6296940013</v>
+        <v>87435.1337112937</v>
       </c>
       <c r="I8" t="n">
-        <v>226596.974239086</v>
+        <v>239866.61151542</v>
       </c>
       <c r="J8" t="n">
-        <v>25087.6189449936</v>
+        <v>12672.7405849089</v>
       </c>
       <c r="K8" t="n">
-        <v>36688.9722649201</v>
+        <v>50019.5738363363</v>
       </c>
       <c r="L8" t="n">
-        <v>36410.4436893907</v>
+        <v>46946.8389311274</v>
       </c>
       <c r="M8" t="n">
-        <v>6563.9816674958</v>
+        <v>525.2347752854</v>
       </c>
       <c r="N8" t="n">
-        <v>26616.7231947064</v>
+        <v>87879.6524082512</v>
       </c>
       <c r="O8" t="n">
-        <v>280389.251796145</v>
+        <v>315878.201097892</v>
       </c>
       <c r="P8" t="n">
-        <v>111117.853317774</v>
+        <v>144836.810173497</v>
       </c>
       <c r="Q8" t="n">
-        <v>229215.556846337</v>
+        <v>329543.650260606</v>
       </c>
       <c r="R8" t="n">
-        <v>111553.498694224</v>
+        <v>265298.634576243</v>
       </c>
       <c r="S8" t="n">
-        <v>112400.753232098</v>
+        <v>157274.920860137</v>
       </c>
       <c r="T8" t="n">
-        <v>107384.567202005</v>
+        <v>152015.620611423</v>
       </c>
       <c r="U8" t="n">
-        <v>71009.6001271994</v>
+        <v>172140.193624592</v>
       </c>
       <c r="V8" t="n">
-        <v>673285.684452083</v>
+        <v>836467.899954477</v>
       </c>
       <c r="W8" t="n">
-        <v>1102202.55293626</v>
+        <v>1420678.68790822</v>
       </c>
       <c r="X8" t="n">
-        <v>10335.9945134659</v>
+        <v>46057.0182284502</v>
       </c>
       <c r="Y8" t="n">
-        <v>6891.7264820051</v>
+        <v>6580.5704282158</v>
       </c>
       <c r="Z8" t="n">
-        <v>1722029.8762635</v>
+        <v>2303755.70378036</v>
       </c>
       <c r="AA8" t="n">
-        <v>1722029.8762635</v>
+        <v>2303755.70378036</v>
       </c>
       <c r="AB8" t="n">
-        <v>508878.123634291</v>
+        <v>603504.197568975</v>
       </c>
       <c r="AC8" t="n">
-        <v>264055.706760127</v>
+        <v>307989.612259567</v>
       </c>
       <c r="AD8" t="n">
-        <v>287796.88010741</v>
+        <v>418253.369568108</v>
       </c>
       <c r="AE8" t="n">
-        <v>1060730.71050183</v>
+        <v>1329747.17939665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25633.66</v>
+        <v>31776.8919460942</v>
       </c>
       <c r="C9" t="n">
-        <v>10806.19</v>
+        <v>15266.5310828802</v>
       </c>
       <c r="D9" t="n">
-        <v>36439.86</v>
+        <v>47043.4230289744</v>
       </c>
       <c r="E9" t="n">
-        <v>160003.65</v>
+        <v>225877.023061774</v>
       </c>
       <c r="F9" t="n">
-        <v>219330.07</v>
+        <v>256108.112185139</v>
       </c>
       <c r="G9" t="n">
-        <v>204978.01</v>
+        <v>267123.889476228</v>
       </c>
       <c r="H9" t="n">
-        <v>72385.48</v>
+        <v>104048.918891621</v>
       </c>
       <c r="I9" t="n">
-        <v>212660.73</v>
+        <v>249680.131836565</v>
       </c>
       <c r="J9" t="n">
-        <v>12978.41</v>
+        <v>20479.0536568239</v>
       </c>
       <c r="K9" t="n">
-        <v>41594.51</v>
+        <v>53482.4187636747</v>
       </c>
       <c r="L9" t="n">
-        <v>42994.68</v>
+        <v>51828.4703549116</v>
       </c>
       <c r="M9" t="n">
-        <v>6229.24</v>
+        <v>1e-10</v>
       </c>
       <c r="N9" t="n">
-        <v>33638.06</v>
+        <v>105470.076595517</v>
       </c>
       <c r="O9" t="n">
-        <v>314186.47</v>
+        <v>296042.85789687</v>
       </c>
       <c r="P9" t="n">
-        <v>131306.03</v>
+        <v>126116.070613676</v>
       </c>
       <c r="Q9" t="n">
-        <v>267325.9</v>
+        <v>399669.142160634</v>
       </c>
       <c r="R9" t="n">
-        <v>176579.37</v>
+        <v>280616.803204087</v>
       </c>
       <c r="S9" t="n">
-        <v>155914.9</v>
+        <v>168350.543708084</v>
       </c>
       <c r="T9" t="n">
-        <v>151010.53</v>
+        <v>162445.760166029</v>
       </c>
       <c r="U9" t="n">
-        <v>110163.34</v>
+        <v>218244.081752152</v>
       </c>
       <c r="V9" t="n">
-        <v>783762.11</v>
+        <v>889011.425369867</v>
       </c>
       <c r="W9" t="n">
-        <v>1249742.73</v>
+        <v>1531978.63275703</v>
       </c>
       <c r="X9" t="n">
-        <v>35251.87</v>
+        <v>42252.9353109382</v>
       </c>
       <c r="Y9" t="n">
-        <v>6669.34</v>
+        <v>6427.9803485741</v>
       </c>
       <c r="Z9" t="n">
-        <v>1991556.48</v>
+        <v>2497223.76022404</v>
       </c>
       <c r="AA9" t="n">
-        <v>1991556.48</v>
+        <v>2497223.76022404</v>
       </c>
       <c r="AB9" t="n">
-        <v>552073.48</v>
+        <v>649341.4990612559</v>
       </c>
       <c r="AC9" t="n">
-        <v>288240.66</v>
+        <v>320196.229407105</v>
       </c>
       <c r="AD9" t="n">
-        <v>337736.86</v>
+        <v>473144.545948758</v>
       </c>
       <c r="AE9" t="n">
-        <v>1178051</v>
+        <v>1442682.27441712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30846.0563025969</v>
+        <v>29855.5</v>
       </c>
       <c r="C10" t="n">
-        <v>14028.4339805272</v>
+        <v>15355.9</v>
       </c>
       <c r="D10" t="n">
-        <v>44874.4902831241</v>
+        <v>45211.4</v>
       </c>
       <c r="E10" t="n">
-        <v>201110.886809286</v>
+        <v>255387.6</v>
       </c>
       <c r="F10" t="n">
-        <v>246447.181943636</v>
+        <v>243160.7</v>
       </c>
       <c r="G10" t="n">
-        <v>232355.166104932</v>
+        <v>297939</v>
       </c>
       <c r="H10" t="n">
-        <v>87435.1337112937</v>
+        <v>103033.4</v>
       </c>
       <c r="I10" t="n">
-        <v>239866.61151542</v>
+        <v>237223.7</v>
       </c>
       <c r="J10" t="n">
-        <v>12672.7405849089</v>
+        <v>20893.7</v>
       </c>
       <c r="K10" t="n">
-        <v>50019.5738363363</v>
+        <v>60146.2</v>
       </c>
       <c r="L10" t="n">
-        <v>46946.8389311274</v>
-      </c>
-      <c r="M10" t="n">
-        <v>525.2347752854</v>
-      </c>
+        <v>54212.7</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>87879.6524082512</v>
+        <v>104474.8</v>
       </c>
       <c r="O10" t="n">
-        <v>315878.201097892</v>
+        <v>287239</v>
       </c>
       <c r="P10" t="n">
-        <v>144836.810173497</v>
+        <v>108915.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>329543.650260606</v>
+        <v>472762.4</v>
       </c>
       <c r="R10" t="n">
-        <v>265298.634576243</v>
+        <v>258693.8</v>
       </c>
       <c r="S10" t="n">
-        <v>157274.920860137</v>
+        <v>184310.6</v>
       </c>
       <c r="T10" t="n">
-        <v>152015.620611423</v>
+        <v>179374.6</v>
       </c>
       <c r="U10" t="n">
-        <v>172140.193624592</v>
+        <v>264352.8</v>
       </c>
       <c r="V10" t="n">
-        <v>836467.899954477</v>
+        <v>977946.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1420678.68790822</v>
+        <v>1641200.7</v>
       </c>
       <c r="X10" t="n">
-        <v>46057.0182284502</v>
+        <v>55644.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>6580.5704282158</v>
+        <v>5937.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>2303755.70378036</v>
+        <v>2667334.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>2303755.70378036</v>
+        <v>2667334.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>603504.197568975</v>
+        <v>721688.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>307989.612259567</v>
+        <v>340178.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>418253.369568108</v>
+        <v>478477.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1329747.17939665</v>
+        <v>1540345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31776.8919460942</v>
+        <v>32534.0330868211</v>
       </c>
       <c r="C11" t="n">
-        <v>15266.5310828802</v>
+        <v>15660.4765306693</v>
       </c>
       <c r="D11" t="n">
-        <v>47043.4230289744</v>
+        <v>48194.5096174904</v>
       </c>
       <c r="E11" t="n">
-        <v>225877.023061774</v>
+        <v>280399.306246346</v>
       </c>
       <c r="F11" t="n">
-        <v>256108.112185139</v>
+        <v>236958.408692086</v>
       </c>
       <c r="G11" t="n">
-        <v>267123.889476228</v>
+        <v>320835.220412336</v>
       </c>
       <c r="H11" t="n">
-        <v>104048.918891621</v>
+        <v>110002.469379299</v>
       </c>
       <c r="I11" t="n">
-        <v>249680.131836565</v>
+        <v>231288.829414146</v>
       </c>
       <c r="J11" t="n">
-        <v>20479.0536568239</v>
+        <v>16815.8548567232</v>
       </c>
       <c r="K11" t="n">
-        <v>53482.4187636747</v>
+        <v>63618.2731703929</v>
       </c>
       <c r="L11" t="n">
-        <v>51828.4703549116</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1e-10</v>
-      </c>
+        <v>64575.7761962943</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>105470.076595517</v>
+        <v>98826.2162374491</v>
       </c>
       <c r="O11" t="n">
-        <v>296042.85789687</v>
+        <v>296766.191634071</v>
       </c>
       <c r="P11" t="n">
-        <v>126116.070613676</v>
+        <v>114185.411446363</v>
       </c>
       <c r="Q11" t="n">
-        <v>399669.142160634</v>
+        <v>546351.347520192</v>
       </c>
       <c r="R11" t="n">
-        <v>280616.803204087</v>
+        <v>246493.073742565</v>
       </c>
       <c r="S11" t="n">
-        <v>168350.543708084</v>
+        <v>198935.365778937</v>
       </c>
       <c r="T11" t="n">
-        <v>162445.760166029</v>
+        <v>193523.843184341</v>
       </c>
       <c r="U11" t="n">
-        <v>218244.081752152</v>
+        <v>307280.668486867</v>
       </c>
       <c r="V11" t="n">
-        <v>889011.425369867</v>
+        <v>1085249.79192684</v>
       </c>
       <c r="W11" t="n">
-        <v>1531978.63275703</v>
+        <v>1798147.07337786</v>
       </c>
       <c r="X11" t="n">
-        <v>42252.9353109382</v>
+        <v>68485.0105444567</v>
       </c>
       <c r="Y11" t="n">
-        <v>6427.9803485741</v>
+        <v>5669.5792779392</v>
       </c>
       <c r="Z11" t="n">
-        <v>2497223.76022404</v>
+        <v>2892720.22455231</v>
       </c>
       <c r="AA11" t="n">
-        <v>2497223.76022404</v>
+        <v>2892720.22455231</v>
       </c>
       <c r="AB11" t="n">
-        <v>649341.4990612559</v>
+        <v>819161.837527285</v>
       </c>
       <c r="AC11" t="n">
-        <v>320196.229407105</v>
+        <v>363486.038716478</v>
       </c>
       <c r="AD11" t="n">
-        <v>473144.545948758</v>
+        <v>498819.676972155</v>
       </c>
       <c r="AE11" t="n">
-        <v>1442682.27441712</v>
+        <v>1681467.55321592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29855.5</v>
+        <v>31577.462332924</v>
       </c>
       <c r="C12" t="n">
-        <v>15355.9</v>
+        <v>21941.9403914036</v>
       </c>
       <c r="D12" t="n">
-        <v>45211.4</v>
+        <v>53519.4027243276</v>
       </c>
       <c r="E12" t="n">
-        <v>255387.6</v>
+        <v>312180.247715228</v>
       </c>
       <c r="F12" t="n">
-        <v>243160.7</v>
+        <v>232330.789402139</v>
       </c>
       <c r="G12" t="n">
-        <v>297939</v>
+        <v>345504.212797596</v>
       </c>
       <c r="H12" t="n">
-        <v>103033.4</v>
+        <v>120489.840610019</v>
       </c>
       <c r="I12" t="n">
-        <v>237223.7</v>
+        <v>226822.034576828</v>
       </c>
       <c r="J12" t="n">
-        <v>20893.7</v>
+        <v>16638.9713063235</v>
       </c>
       <c r="K12" t="n">
-        <v>60146.2</v>
+        <v>69050.8371129725</v>
       </c>
       <c r="L12" t="n">
-        <v>54212.7</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>73346.0899503713</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.16818</v>
+      </c>
       <c r="N12" t="n">
-        <v>104474.8</v>
+        <v>129521.320671688</v>
       </c>
       <c r="O12" t="n">
-        <v>287239</v>
+        <v>309122.755415065</v>
       </c>
       <c r="P12" t="n">
-        <v>108915.9</v>
+        <v>115915.913457829</v>
       </c>
       <c r="Q12" t="n">
-        <v>472762.4</v>
+        <v>624433.071004414</v>
       </c>
       <c r="R12" t="n">
-        <v>258693.8</v>
+        <v>241873.460966469</v>
       </c>
       <c r="S12" t="n">
-        <v>184310.6</v>
+        <v>209083.251579322</v>
       </c>
       <c r="T12" t="n">
-        <v>179374.6</v>
+        <v>205279.043592883</v>
       </c>
       <c r="U12" t="n">
-        <v>264352.8</v>
+        <v>363624.952676077</v>
       </c>
       <c r="V12" t="n">
-        <v>977946.5</v>
+        <v>1229057.23246416</v>
       </c>
       <c r="W12" t="n">
-        <v>1641200.7</v>
+        <v>1987799.10035295</v>
       </c>
       <c r="X12" t="n">
-        <v>55644.3</v>
+        <v>76209.556299552</v>
       </c>
       <c r="Y12" t="n">
-        <v>5937.1</v>
+        <v>5508.7548253108</v>
       </c>
       <c r="Z12" t="n">
-        <v>2667334.9</v>
+        <v>3189989.10783131</v>
       </c>
       <c r="AA12" t="n">
-        <v>2667334.9</v>
+        <v>3189989.10783131</v>
       </c>
       <c r="AB12" t="n">
-        <v>721688.6</v>
+        <v>932966.34989897</v>
       </c>
       <c r="AC12" t="n">
-        <v>340178.9</v>
+        <v>383837.335532751</v>
       </c>
       <c r="AD12" t="n">
-        <v>478477.5</v>
+        <v>541266.455897352</v>
       </c>
       <c r="AE12" t="n">
-        <v>1540345</v>
+        <v>1858070.14132907</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32534.0330868211</v>
+        <v>33069.410479219</v>
       </c>
       <c r="C13" t="n">
-        <v>15660.4765306693</v>
+        <v>26309.163394618</v>
       </c>
       <c r="D13" t="n">
-        <v>48194.5096174904</v>
+        <v>59378.573873837</v>
       </c>
       <c r="E13" t="n">
-        <v>280399.306246346</v>
+        <v>350551.725728905</v>
       </c>
       <c r="F13" t="n">
-        <v>236958.408692086</v>
+        <v>222500.404022872</v>
       </c>
       <c r="G13" t="n">
-        <v>320835.220412336</v>
+        <v>381539.241347715</v>
       </c>
       <c r="H13" t="n">
-        <v>110002.469379299</v>
+        <v>125163.693454687</v>
       </c>
       <c r="I13" t="n">
-        <v>231288.829414146</v>
+        <v>217160.753925738</v>
       </c>
       <c r="J13" t="n">
-        <v>16815.8548567232</v>
+        <v>14995.7754615991</v>
       </c>
       <c r="K13" t="n">
-        <v>63618.2731703929</v>
+        <v>73885.85787829731</v>
       </c>
       <c r="L13" t="n">
-        <v>64575.7761962943</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>81208.2162489895</v>
+      </c>
+      <c r="M13" t="n">
+        <v>21.1749863022</v>
+      </c>
       <c r="N13" t="n">
-        <v>98826.2162374491</v>
+        <v>118576.166042561</v>
       </c>
       <c r="O13" t="n">
-        <v>296766.191634071</v>
+        <v>311829.891861099</v>
       </c>
       <c r="P13" t="n">
-        <v>114185.411446363</v>
+        <v>112651.881122121</v>
       </c>
       <c r="Q13" t="n">
-        <v>546351.347520192</v>
+        <v>703434.34609804</v>
       </c>
       <c r="R13" t="n">
-        <v>246493.073742565</v>
+        <v>246908.232733487</v>
       </c>
       <c r="S13" t="n">
-        <v>198935.365778937</v>
+        <v>253973.53064218</v>
       </c>
       <c r="T13" t="n">
-        <v>193523.843184341</v>
+        <v>249744.128219165</v>
       </c>
       <c r="U13" t="n">
-        <v>307280.668486867</v>
+        <v>412863.014835705</v>
       </c>
       <c r="V13" t="n">
-        <v>1085249.79192684</v>
+        <v>1333788.51218235</v>
       </c>
       <c r="W13" t="n">
-        <v>1798147.07337786</v>
+        <v>2116898.59145877</v>
       </c>
       <c r="X13" t="n">
-        <v>68485.0105444567</v>
+        <v>55509.0806292732</v>
       </c>
       <c r="Y13" t="n">
-        <v>5669.5792779392</v>
+        <v>5339.6500971341</v>
       </c>
       <c r="Z13" t="n">
-        <v>2892720.22455231</v>
+        <v>3430395.12805284</v>
       </c>
       <c r="AA13" t="n">
-        <v>2892720.22455231</v>
+        <v>3430395.12805284</v>
       </c>
       <c r="AB13" t="n">
-        <v>819161.837527285</v>
+        <v>1032441.18381299</v>
       </c>
       <c r="AC13" t="n">
-        <v>363486.038716478</v>
+        <v>412951.554706329</v>
       </c>
       <c r="AD13" t="n">
-        <v>498819.676972155</v>
+        <v>556618.198436346</v>
       </c>
       <c r="AE13" t="n">
-        <v>1681467.55321592</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>31577.462332924</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21941.9403914036</v>
-      </c>
-      <c r="D14" t="n">
-        <v>53519.4027243276</v>
-      </c>
-      <c r="E14" t="n">
-        <v>312180.247715228</v>
-      </c>
-      <c r="F14" t="n">
-        <v>232330.789402139</v>
-      </c>
-      <c r="G14" t="n">
-        <v>345504.212797596</v>
-      </c>
-      <c r="H14" t="n">
-        <v>120489.840610019</v>
-      </c>
-      <c r="I14" t="n">
-        <v>226822.034576828</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16638.9713063235</v>
-      </c>
-      <c r="K14" t="n">
-        <v>69050.8371129725</v>
-      </c>
-      <c r="L14" t="n">
-        <v>73346.0899503713</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6.16818</v>
-      </c>
-      <c r="N14" t="n">
-        <v>129521.320671688</v>
-      </c>
-      <c r="O14" t="n">
-        <v>309122.755415065</v>
-      </c>
-      <c r="P14" t="n">
-        <v>115915.913457829</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>624433.071004414</v>
-      </c>
-      <c r="R14" t="n">
-        <v>241873.460966469</v>
-      </c>
-      <c r="S14" t="n">
-        <v>209083.251579322</v>
-      </c>
-      <c r="T14" t="n">
-        <v>205279.043592883</v>
-      </c>
-      <c r="U14" t="n">
-        <v>363624.952676077</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1229057.23246416</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1987799.10035295</v>
-      </c>
-      <c r="X14" t="n">
-        <v>76209.556299552</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5508.7548253108</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3189989.10783131</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3189989.10783131</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>932966.34989897</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>383837.335532751</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>541266.455897352</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1858070.14132907</v>
+        <v>2002010.93695566</v>
       </c>
     </row>
   </sheetData>
